--- a/Documents/3_수집데이터/farmDB_final_0811.xlsx
+++ b/Documents/3_수집데이터/farmDB_final_0811.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\3_수집데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52999EEF-865A-44FD-9855-8A07A0C401D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996E6C6-A633-400E-A2CD-7F32FD90F1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="361">
   <si>
     <t>farm_num</t>
   </si>
@@ -229,919 +229,924 @@
     <t>광주광역시 남구 양과동 957 외 2필지</t>
   </si>
   <si>
-    <t>광주광역시 월계동 830-2</t>
+    <t>전라남도 나주시 빛가람동 22-1</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>60,000</t>
+  </si>
+  <si>
+    <t>80,000</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15,000</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>소형</t>
+  </si>
+  <si>
+    <t>중형</t>
+  </si>
+  <si>
+    <t>대형</t>
+  </si>
+  <si>
+    <t>힐링텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 수박, 보리 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요!</t>
+  </si>
+  <si>
+    <t>나무향기 현천골농장은 과수원로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 쌀, 수박, 배 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 평상, 창고 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>힐링캠프는 논로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 보리 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 평상, 창고 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>고인돌텃밭농장은 밭로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 수박, 쌀, 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다. 이 텃밭에는 주차장 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>능주정보화마을텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토, 사과, 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 주차장 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>힐링가족텃밭은 과수원로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 비가림쉼터 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>솔머리행복텃밭은 논로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 쌀, 사과, 토마토 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 원두막, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>행복둥지텃밭 2호는 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토, 배, 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>분토농업주말농장은 논로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 수도, 쉼터 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>우리두리주말농장은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 쉼터,수도,동물농장 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>해피팜주말농장은 밭로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 토마토 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 수도, 쉼터,그네등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>도시텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 - 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마제텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>봉산주말농장은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 배, 사과, 보리 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 그늘막, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>풍암호수공원주말농장은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 보리, 토마토, 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>행복키움주말농장(소태동)은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀, 사과, 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 관수시설, 원두막, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>행복키움주말농장(내남동)은 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 관수시설, 휴게쉼터, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>행복키움주말농장(용연동)은 과수원로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 쌀, 토마토, 배 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다. 이 텃밭에는 관수시설, 파고라, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>행복키움주말농장(용산동)은 과수원로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 보리, 쌀, 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 관수시설, 휴게쉼터, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>양동 친환경공영도시텃밭은 논로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>풍암동 친환경공영도시텃밭은 논로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>건강희망텃밭은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
+  </si>
+  <si>
+    <t>무명(광주 월계동)은 논로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토, 사과 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>반월공동체텃밭은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 사과, 토마토 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
+  </si>
+  <si>
+    <t>인계마을공동체희망텃밭은 과수원로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
+  </si>
+  <si>
+    <t>행복한텃밭은 과수원로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요!</t>
+  </si>
+  <si>
+    <t>무명텃밭(광주 신촌동)은 과수원로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 원두막 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>무명텃밭(광주 월곡동)은 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 보리, 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>친환경서송옥상텃밭은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>행복둥지텃밭 1호는 밭로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 없음 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>삼향골은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다.</t>
+  </si>
+  <si>
+    <t>도시민 친환경 가족텃밭은 논로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다.</t>
+  </si>
+  <si>
+    <t>공원텃밭(2지구)은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배, 사과, 수박 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 관리사, 교육장, 화장실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>공원텃밭(3지구)은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 사과, 보리, 수박 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 교육장, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>공원텃밭(4지구)은 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 보리, 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 교육장, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>옐로우시티는 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다.</t>
+  </si>
+  <si>
+    <t>농사체험학습장은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 주차장, 급수시설, 화장실 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>혁신도시 공원텃밭은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 토마토, 배, 사과 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
+  </si>
+  <si>
+    <t>신대도시농업공원은 밭로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 사과, 쌀, 수박 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 주차장, 교육장, 관정, 화장실, 관리실, 농기구보관실, 퇴비사, 쉼터 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.png</t>
+  </si>
+  <si>
+    <t>5.png</t>
+  </si>
+  <si>
+    <t>6.png</t>
+  </si>
+  <si>
+    <t>7.png</t>
+  </si>
+  <si>
+    <t>8.png</t>
+  </si>
+  <si>
+    <t>9.png</t>
+  </si>
+  <si>
+    <t>10.png</t>
+  </si>
+  <si>
+    <t>11.png</t>
+  </si>
+  <si>
+    <t>12.png</t>
+  </si>
+  <si>
+    <t>13.png</t>
+  </si>
+  <si>
+    <t>14.png</t>
+  </si>
+  <si>
+    <t>15.png</t>
+  </si>
+  <si>
+    <t>16.png</t>
+  </si>
+  <si>
+    <t>17.png</t>
+  </si>
+  <si>
+    <t>18.png</t>
+  </si>
+  <si>
+    <t>19.png</t>
+  </si>
+  <si>
+    <t>20.png</t>
+  </si>
+  <si>
+    <t>21.png</t>
+  </si>
+  <si>
+    <t>22.png</t>
+  </si>
+  <si>
+    <t>23.png</t>
+  </si>
+  <si>
+    <t>24.png</t>
+  </si>
+  <si>
+    <t>25.png</t>
+  </si>
+  <si>
+    <t>26.png</t>
+  </si>
+  <si>
+    <t>27.png</t>
+  </si>
+  <si>
+    <t>28.png</t>
+  </si>
+  <si>
+    <t>29.png</t>
+  </si>
+  <si>
+    <t>2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.png</t>
+  </si>
+  <si>
+    <t>31.png</t>
+  </si>
+  <si>
+    <t>32.png</t>
+  </si>
+  <si>
+    <t>33.png</t>
+  </si>
+  <si>
+    <t>34.png</t>
+  </si>
+  <si>
+    <t>35.png</t>
+  </si>
+  <si>
+    <t>36.png</t>
+  </si>
+  <si>
+    <t>37.png</t>
+  </si>
+  <si>
+    <t>38.png</t>
+  </si>
+  <si>
+    <t>39.png</t>
+  </si>
+  <si>
+    <t>40.png</t>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lental_startDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lental_endDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_sector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lental_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lental_area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼연주말농장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 광산구 삼도동 586</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼연주말농장은 논로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 수박, 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>PepperMaster</t>
+  </si>
+  <si>
+    <t>RosemaryFairy</t>
+  </si>
+  <si>
+    <t>RadishRanger</t>
+  </si>
+  <si>
+    <t>LettuceLeader</t>
+  </si>
+  <si>
+    <t>CarrotCaptain</t>
+  </si>
+  <si>
+    <t>ParsleyPrincess</t>
+  </si>
+  <si>
+    <t>LavenderMoon</t>
+  </si>
+  <si>
+    <t>ChiliChampion</t>
+  </si>
+  <si>
+    <t>SageSorcerer</t>
+  </si>
+  <si>
+    <t>CilantroCrown</t>
+  </si>
+  <si>
+    <t>LettuceLuminary</t>
+  </si>
+  <si>
+    <t>PepperPirate</t>
+  </si>
+  <si>
+    <t>GarlicGardener</t>
+  </si>
+  <si>
+    <t>CucumberCrafter</t>
+  </si>
+  <si>
+    <t>ParsleyPrince</t>
+  </si>
+  <si>
+    <t>BroccoliBoss</t>
+  </si>
+  <si>
+    <t>LavenderLover</t>
+  </si>
+  <si>
+    <t>CucumberKing</t>
+  </si>
+  <si>
+    <t>RosemaryRanger</t>
+  </si>
+  <si>
+    <t>ThymeTraveler</t>
+  </si>
+  <si>
+    <t>CilantroKid</t>
+  </si>
+  <si>
+    <t>DillBuddy</t>
+  </si>
+  <si>
+    <t>ChiliHero</t>
+  </si>
+  <si>
+    <t>SageWizard</t>
+  </si>
+  <si>
+    <t>TomatoKing</t>
+  </si>
+  <si>
+    <t>BasilBear</t>
+  </si>
+  <si>
+    <t>ThymeWizard</t>
+  </si>
+  <si>
+    <t>KaleEmperor</t>
+  </si>
+  <si>
+    <t>CornCaptain</t>
+  </si>
+  <si>
+    <t>SpinachStar</t>
+  </si>
+  <si>
+    <t>BasilBuddy</t>
+  </si>
+  <si>
+    <t>GingerFairy</t>
+  </si>
+  <si>
+    <t>GarlicMage</t>
+  </si>
+  <si>
+    <t>TomatoTango</t>
+  </si>
+  <si>
+    <t>MintyMeadow</t>
+  </si>
+  <si>
+    <t>ArugulaAce</t>
+  </si>
+  <si>
+    <t>GingerGenie</t>
+  </si>
+  <si>
+    <t>DillDancer</t>
+  </si>
+  <si>
+    <t>RadishRider</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>2024-03-02</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2024-03-30</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-03-24</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-02-18</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-04-14</t>
+  </si>
+  <si>
+    <t>2024-02-14</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-08</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2024-09-29</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 나주시 빛가람동 831</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 나주시 빛가람동 864</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광주광역시 광산구 월곡동 110-7, 산105-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광주광역시 광산구 우산동 1601-7/889-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광주광역시 광산구 도산동631,632</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광주광역시 광산구 신촌동 1072-8</t>
-  </si>
-  <si>
-    <t>광주광역시 월곡동 490-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광주광역시 광산구 월곡동 52-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 광산구 월곡동 490-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광주광역시 광산구 도천동 522</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전라남도 목포시 대양동 198</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전라남도 여수시 여천동 896-2, 896-4</t>
-  </si>
-  <si>
-    <t>전라남도 나주시 빛가람동 22-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전라남도 장성군 장성읍 1455</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전라남도 광양시 봉강면 지곡리 862-19외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전라남도 나주시 빛가람동 536외 2개소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전라남도 순천시 해룡면 신대리 2137</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>60,000</t>
-  </si>
-  <si>
-    <t>80,000</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>30,000</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>15,000</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>소형</t>
-  </si>
-  <si>
-    <t>중형</t>
-  </si>
-  <si>
-    <t>대형</t>
-  </si>
-  <si>
-    <t>힐링텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 수박, 보리 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요!</t>
-  </si>
-  <si>
-    <t>나무향기 현천골농장은 과수원로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 쌀, 수박, 배 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 평상, 창고 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>힐링캠프는 논로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 보리 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 평상, 창고 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>고인돌텃밭농장은 밭로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 수박, 쌀, 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다. 이 텃밭에는 주차장 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>능주정보화마을텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토, 사과, 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 주차장 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>힐링가족텃밭은 과수원로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 비가림쉼터 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>솔머리행복텃밭은 논로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 쌀, 사과, 토마토 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 원두막, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>행복둥지텃밭 2호는 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토, 배, 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>분토농업주말농장은 논로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 수도, 쉼터 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>우리두리주말농장은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 쉼터,수도,동물농장 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>해피팜주말농장은 밭로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 토마토 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 수도, 쉼터,그네등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>도시텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 - 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>마제텃밭은 과수원로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>봉산주말농장은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 배, 사과, 보리 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 그늘막, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>풍암호수공원주말농장은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 보리, 토마토, 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>행복키움주말농장(소태동)은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀, 사과, 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 관수시설, 원두막, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>행복키움주말농장(내남동)은 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 관수시설, 휴게쉼터, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>행복키움주말농장(용연동)은 과수원로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 쌀, 토마토, 배 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다. 이 텃밭에는 관수시설, 파고라, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>행복키움주말농장(용산동)은 과수원로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 보리, 쌀, 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 관수시설, 휴게쉼터, 농기구함 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>양동 친환경공영도시텃밭은 논로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>풍암동 친환경공영도시텃밭은 논로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 창고, 휴게실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>건강희망텃밭은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
-  </si>
-  <si>
-    <t>무명(광주 월계동)은 논로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토, 사과 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>반월공동체텃밭은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 사과, 토마토 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
-  </si>
-  <si>
-    <t>인계마을공동체희망텃밭은 과수원로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 수박 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
-  </si>
-  <si>
-    <t>행복한텃밭은 과수원로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요!</t>
-  </si>
-  <si>
-    <t>무명텃밭(광주 신촌동)은 과수원로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 원두막 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>무명텃밭(광주 월곡동)은 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 보리, 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>친환경서송옥상텃밭은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 쌀 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 수도시설 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>행복둥지텃밭 1호는 밭로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 없음 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>삼향골은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다.</t>
-  </si>
-  <si>
-    <t>도시민 친환경 가족텃밭은 논로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다.</t>
-  </si>
-  <si>
-    <t>공원텃밭(2지구)은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 배, 사과, 수박 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 관리사, 교육장, 화장실, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>공원텃밭(3지구)은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 사과, 보리, 수박 등 다양한 작물을 직접 기를 수 있으며, 농사 지은 작물로 요리도 즐겨보세요! 이 텃밭에는 교육장, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>공원텃밭(4지구)은 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 보리, 쌀 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 교육장, 관정 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>옐로우시티는 밭로, 도심 속 작은 숲 같은 특별한 텃밭입니다. 여기에서는 사과 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다.</t>
-  </si>
-  <si>
-    <t>농사체험학습장은 논로, 물소리가 들리는 특별한 텃밭입니다. 여기에서는 토마토 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요. 이 텃밭에는 주차장, 급수시설, 화장실 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>혁신도시 공원텃밭은 밭로, 해바라기가 활짝 핀 특별한 텃밭입니다. 여기에서는 토마토, 배, 사과 등 다양한 작물을 직접 기를 수 있으며, 자연과 함께 어린이 교육에 좋아요.</t>
-  </si>
-  <si>
-    <t>신대도시농업공원은 밭로, 새소리가 들리는 특별한 텃밭입니다. 여기에서는 사과, 쌀, 수박 등 다양한 작물을 직접 기를 수 있으며, 가족과 함께하는 특별한 경험을 선사합니다. 이 텃밭에는 주차장, 교육장, 관정, 화장실, 관리실, 농기구보관실, 퇴비사, 쉼터 등 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>힐링텃밭은 밭로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 수박, 쌀, 토마토 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다. 이 텃밭에는 비가림쉼터 등의 부대시설이 마련되어 있어 편리하게 이용하실 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.png</t>
-  </si>
-  <si>
-    <t>4.png</t>
-  </si>
-  <si>
-    <t>5.png</t>
-  </si>
-  <si>
-    <t>6.png</t>
-  </si>
-  <si>
-    <t>7.png</t>
-  </si>
-  <si>
-    <t>8.png</t>
-  </si>
-  <si>
-    <t>9.png</t>
-  </si>
-  <si>
-    <t>10.png</t>
-  </si>
-  <si>
-    <t>11.png</t>
-  </si>
-  <si>
-    <t>12.png</t>
-  </si>
-  <si>
-    <t>13.png</t>
-  </si>
-  <si>
-    <t>14.png</t>
-  </si>
-  <si>
-    <t>15.png</t>
-  </si>
-  <si>
-    <t>16.png</t>
-  </si>
-  <si>
-    <t>17.png</t>
-  </si>
-  <si>
-    <t>18.png</t>
-  </si>
-  <si>
-    <t>19.png</t>
-  </si>
-  <si>
-    <t>20.png</t>
-  </si>
-  <si>
-    <t>21.png</t>
-  </si>
-  <si>
-    <t>22.png</t>
-  </si>
-  <si>
-    <t>23.png</t>
-  </si>
-  <si>
-    <t>24.png</t>
-  </si>
-  <si>
-    <t>25.png</t>
-  </si>
-  <si>
-    <t>26.png</t>
-  </si>
-  <si>
-    <t>27.png</t>
-  </si>
-  <si>
-    <t>28.png</t>
-  </si>
-  <si>
-    <t>29.png</t>
-  </si>
-  <si>
-    <t>2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.png</t>
-  </si>
-  <si>
-    <t>31.png</t>
-  </si>
-  <si>
-    <t>32.png</t>
-  </si>
-  <si>
-    <t>33.png</t>
-  </si>
-  <si>
-    <t>34.png</t>
-  </si>
-  <si>
-    <t>35.png</t>
-  </si>
-  <si>
-    <t>36.png</t>
-  </si>
-  <si>
-    <t>37.png</t>
-  </si>
-  <si>
-    <t>38.png</t>
-  </si>
-  <si>
-    <t>39.png</t>
-  </si>
-  <si>
-    <t>40.png</t>
-  </si>
-  <si>
-    <t>41.png</t>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lental_startDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lental_endDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>longitude</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lantitude</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_sector</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lental_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>startDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_day</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lental_area</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼연주말농장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시 광산구 삼도동 586</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼연주말농장은 논로, 산과 강이 어우러진 특별한 텃밭입니다. 여기에서는 수박, 사과 등 다양한 작물을 직접 기를 수 있으며, 휴식과 여유를 찾을 수 있는 공간입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2023-08-20</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>PepperMaster</t>
-  </si>
-  <si>
-    <t>RosemaryFairy</t>
-  </si>
-  <si>
-    <t>RadishRanger</t>
-  </si>
-  <si>
-    <t>LettuceLeader</t>
-  </si>
-  <si>
-    <t>CarrotCaptain</t>
-  </si>
-  <si>
-    <t>ParsleyPrincess</t>
-  </si>
-  <si>
-    <t>LavenderMoon</t>
-  </si>
-  <si>
-    <t>ChiliChampion</t>
-  </si>
-  <si>
-    <t>SageSorcerer</t>
-  </si>
-  <si>
-    <t>CilantroCrown</t>
-  </si>
-  <si>
-    <t>LettuceLuminary</t>
-  </si>
-  <si>
-    <t>PepperPirate</t>
-  </si>
-  <si>
-    <t>GarlicGardener</t>
-  </si>
-  <si>
-    <t>CucumberCrafter</t>
-  </si>
-  <si>
-    <t>ParsleyPrince</t>
-  </si>
-  <si>
-    <t>BroccoliBoss</t>
-  </si>
-  <si>
-    <t>LavenderLover</t>
-  </si>
-  <si>
-    <t>CucumberKing</t>
-  </si>
-  <si>
-    <t>RosemaryRanger</t>
-  </si>
-  <si>
-    <t>ThymeTraveler</t>
-  </si>
-  <si>
-    <t>MintFairy</t>
-  </si>
-  <si>
-    <t>CilantroKid</t>
-  </si>
-  <si>
-    <t>DillBuddy</t>
-  </si>
-  <si>
-    <t>ChiliHero</t>
-  </si>
-  <si>
-    <t>SageWizard</t>
-  </si>
-  <si>
-    <t>TomatoKing</t>
-  </si>
-  <si>
-    <t>BasilBear</t>
-  </si>
-  <si>
-    <t>ThymeWizard</t>
-  </si>
-  <si>
-    <t>KaleEmperor</t>
-  </si>
-  <si>
-    <t>CornCaptain</t>
-  </si>
-  <si>
-    <t>SpinachStar</t>
-  </si>
-  <si>
-    <t>BasilBuddy</t>
-  </si>
-  <si>
-    <t>GingerFairy</t>
-  </si>
-  <si>
-    <t>GarlicMage</t>
-  </si>
-  <si>
-    <t>TomatoTango</t>
-  </si>
-  <si>
-    <t>MintyMeadow</t>
-  </si>
-  <si>
-    <t>ArugulaAce</t>
-  </si>
-  <si>
-    <t>GingerGenie</t>
-  </si>
-  <si>
-    <t>DillDancer</t>
-  </si>
-  <si>
-    <t>RadishRider</t>
-  </si>
-  <si>
-    <t>2023-08-26</t>
-  </si>
-  <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
-    <t>2023-09-03</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
-    <t>2023-09-17</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
-    <t>2023-10-08</t>
-  </si>
-  <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
-    <t>2023-11-04</t>
-  </si>
-  <si>
-    <t>2023-09-09</t>
-  </si>
-  <si>
-    <t>2023-10-07</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-11-29</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-11-25</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2023-08-11</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-05</t>
-  </si>
-  <si>
-    <t>2023-11-03</t>
-  </si>
-  <si>
-    <t>2023-11-26</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-29</t>
-  </si>
-  <si>
-    <t>2023-11-18</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-17</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
-    <t>2023-10-21</t>
-  </si>
-  <si>
-    <t>2023-11-11</t>
-  </si>
-  <si>
-    <t>2023-10-28</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
-    <t>2024-02-09</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>2024-03-02</t>
-  </si>
-  <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-03-30</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>2024-03-24</t>
-  </si>
-  <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
-    <t>2024-03-11</t>
-  </si>
-  <si>
-    <t>2024-02-18</t>
-  </si>
-  <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>2024-10-22</t>
-  </si>
-  <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
-    <t>2025-03-05</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>2024-04-20</t>
-  </si>
-  <si>
-    <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>2024-04-14</t>
-  </si>
-  <si>
-    <t>2024-02-14</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>2024-10-15</t>
-  </si>
-  <si>
-    <t>2024-09-11</t>
-  </si>
-  <si>
-    <t>2024-09-08</t>
-  </si>
-  <si>
-    <t>2024-08-20</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2024-09-24</t>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-  </si>
-  <si>
-    <t>2024-08-07</t>
-  </si>
-  <si>
-    <t>2024-09-26</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>2025-03-06</t>
-  </si>
-  <si>
-    <t>2024-08-19</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-03-11</t>
-  </si>
-  <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2024-09-06</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>2025-03-14</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>2024-09-29</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>2024-09-22</t>
-  </si>
-  <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
-    <t>2023-08-09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-08-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-08-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 나주시 빛가람동 831</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 나주시 빛가람동 864</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 북구 월계동 830-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1553,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1567,6 +1572,7 @@
     <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
@@ -1582,55 +1588,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -1638,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E2" s="7">
         <v>120000</v>
@@ -1656,7 +1662,7 @@
         <v>126.6866741</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1665,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -1703,7 +1709,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>35.04576754</v>
@@ -1712,7 +1718,7 @@
         <v>126.9930968</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -1721,28 +1727,28 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -1750,25 +1756,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F4">
-        <v>35.04576754</v>
+        <v>34.759145150000002</v>
       </c>
       <c r="G4">
-        <v>126.9930968</v>
+        <v>127.60794629999999</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1777,28 +1783,28 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1806,25 +1812,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>34.759145150000002</v>
+        <v>34.770363570000001</v>
       </c>
       <c r="G5">
-        <v>127.60794629999999</v>
+        <v>127.6556207</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1833,28 +1839,28 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="P5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -1862,55 +1868,55 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>34.770363570000001</v>
+        <v>34.987041089999998</v>
       </c>
       <c r="G6">
-        <v>127.6556207</v>
+        <v>126.9133503</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -1918,55 +1924,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>34.987041089999998</v>
+        <v>35.020471239999999</v>
       </c>
       <c r="G7">
-        <v>126.9133503</v>
+        <v>126.9706413</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -1974,25 +1980,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>35.020471239999999</v>
+        <v>35.060867690000002</v>
       </c>
       <c r="G8">
-        <v>126.9706413</v>
+        <v>126.9804573</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -2001,28 +2007,28 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -2030,55 +2036,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F9">
-        <v>35.060867690000002</v>
+        <v>35.146285829999997</v>
       </c>
       <c r="G9">
-        <v>126.9804573</v>
+        <v>126.7930446</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -2086,55 +2092,55 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>35.146285829999997</v>
+        <v>35.215657319999998</v>
       </c>
       <c r="G10">
-        <v>126.7930446</v>
+        <v>126.8177204</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -2142,55 +2148,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F11">
-        <v>35.215657319999998</v>
+        <v>35.186967430000003</v>
       </c>
       <c r="G11">
-        <v>126.8177204</v>
+        <v>126.9570844</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -2198,55 +2204,55 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F12">
-        <v>35.186967430000003</v>
+        <v>35.172118480000002</v>
       </c>
       <c r="G12">
-        <v>126.9570844</v>
+        <v>126.9602707</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -2254,55 +2260,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>35.172118480000002</v>
+        <v>35.20645158</v>
       </c>
       <c r="G13">
-        <v>126.9602707</v>
+        <v>126.9318408</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -2310,55 +2316,55 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F14">
-        <v>35.20645158</v>
+        <v>35.156641610000001</v>
       </c>
       <c r="G14">
-        <v>126.9318408</v>
+        <v>126.89414069999999</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="N14" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="P14" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="P14" t="s">
-        <v>112</v>
-      </c>
       <c r="Q14" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2366,55 +2372,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>35.156641610000001</v>
+        <v>35.129543910000002</v>
       </c>
       <c r="G15">
-        <v>126.89414069999999</v>
+        <v>126.86258789999999</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2422,25 +2428,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F16">
-        <v>35.129543910000002</v>
+        <v>35.095326470000003</v>
       </c>
       <c r="G16">
-        <v>126.86258789999999</v>
+        <v>126.8135303</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -2449,28 +2455,28 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
@@ -2478,25 +2484,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>35.095326470000003</v>
+        <v>35.129789780000003</v>
       </c>
       <c r="G17">
-        <v>126.8135303</v>
+        <v>126.86845479999999</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -2505,28 +2511,28 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
@@ -2534,55 +2540,55 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>35.129789780000003</v>
+        <v>35.119966269999999</v>
       </c>
       <c r="G18">
-        <v>126.86845479999999</v>
+        <v>126.94353340000001</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
@@ -2590,25 +2596,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>35.119966269999999</v>
+        <v>35.08621359</v>
       </c>
       <c r="G19">
-        <v>126.94353340000001</v>
+        <v>126.93967910000001</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2617,28 +2623,28 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
@@ -2646,25 +2652,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>35.08621359</v>
+        <v>35.094648880000001</v>
       </c>
       <c r="G20">
-        <v>126.93967910000001</v>
+        <v>126.9627606</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2673,28 +2679,28 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
@@ -2702,25 +2708,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>35.094648880000001</v>
+        <v>35.111383930000002</v>
       </c>
       <c r="G21">
-        <v>126.9627606</v>
+        <v>126.9337723</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -2729,28 +2735,28 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
@@ -2758,25 +2764,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F22">
-        <v>35.111383930000002</v>
+        <v>35.156651170000004</v>
       </c>
       <c r="G22">
-        <v>126.9337723</v>
+        <v>126.8942291</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -2785,28 +2791,28 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
@@ -2814,25 +2820,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F23">
-        <v>35.156651170000004</v>
+        <v>35.129333240000001</v>
       </c>
       <c r="G23">
-        <v>126.8942291</v>
+        <v>126.8758014</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -2841,28 +2847,28 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -2870,55 +2876,55 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24">
+        <v>35.087435679999999</v>
+      </c>
+      <c r="G24">
+        <v>126.8638243</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>85</v>
       </c>
-      <c r="F24">
-        <v>35.129333240000001</v>
-      </c>
-      <c r="G24">
-        <v>126.8758014</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>99</v>
-      </c>
       <c r="L24" s="8" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -2926,55 +2932,55 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>360</v>
       </c>
       <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>35.21221173</v>
+      </c>
+      <c r="G25">
+        <v>126.8421647</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="F25">
-        <v>35.087435679999999</v>
-      </c>
-      <c r="G25">
-        <v>126.8638243</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="L25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="P25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -2982,25 +2988,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>347</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F26">
-        <v>35.21221173</v>
+        <v>35.16583095</v>
       </c>
       <c r="G26">
-        <v>126.8421647</v>
+        <v>126.816104</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -3009,28 +3015,28 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3038,55 +3044,55 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>348</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F27">
-        <v>35.16583095</v>
+        <v>35.160224810000003</v>
       </c>
       <c r="G27">
-        <v>126.816104</v>
+        <v>126.8070287</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3094,55 +3100,55 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F28">
-        <v>35.160224810000003</v>
+        <v>35.125308339999997</v>
       </c>
       <c r="G28">
-        <v>126.8070287</v>
+        <v>126.79308570000001</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3150,25 +3156,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F29">
-        <v>35.125308339999997</v>
+        <v>35.146717559999999</v>
       </c>
       <c r="G29">
-        <v>126.79308570000001</v>
+        <v>126.8017624</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -3177,28 +3183,28 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3206,55 +3212,55 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F30">
-        <v>35.146717559999999</v>
+        <v>35.174370240000002</v>
       </c>
       <c r="G30">
-        <v>126.8017624</v>
+        <v>126.8078735</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3262,55 +3268,55 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F31">
-        <v>35.174370240000002</v>
+        <v>35.168432520000003</v>
       </c>
       <c r="G31">
-        <v>126.8078735</v>
+        <v>126.8104209</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3318,55 +3324,55 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F32">
-        <v>35.168432520000003</v>
+        <v>35.220214349999999</v>
       </c>
       <c r="G32">
-        <v>126.8104209</v>
+        <v>126.81619929999999</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3374,55 +3380,55 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
       <c r="F33">
-        <v>35.220214349999999</v>
+        <v>34.835939009999997</v>
       </c>
       <c r="G33">
-        <v>126.81619929999999</v>
+        <v>126.4258916</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3430,25 +3436,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>34.835939009999997</v>
+        <v>34.780743510000001</v>
       </c>
       <c r="G34">
-        <v>126.4258916</v>
+        <v>127.66370430000001</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I34">
         <v>5</v>
@@ -3457,28 +3463,28 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -3486,55 +3492,55 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35">
+        <v>35.00965472</v>
+      </c>
+      <c r="G35">
+        <v>126.7992539</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35">
-        <v>34.780743510000001</v>
-      </c>
-      <c r="G35">
-        <v>127.66370430000001</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -3542,25 +3548,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F36">
-        <v>35.00965472</v>
+        <v>35.009135870000001</v>
       </c>
       <c r="G36">
-        <v>126.7992539</v>
+        <v>126.7930193</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -3569,28 +3575,28 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -3598,25 +3604,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F37">
-        <v>35.009135870000001</v>
+        <v>35.028759999999998</v>
       </c>
       <c r="G37">
-        <v>126.7930193</v>
+        <v>126.7843436</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -3625,28 +3631,28 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
@@ -3654,55 +3660,55 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F38">
-        <v>35.028759999999998</v>
+        <v>35.303092220000003</v>
       </c>
       <c r="G38">
-        <v>126.7843436</v>
+        <v>126.7700636</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -3710,55 +3716,55 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F39">
-        <v>35.303092220000003</v>
+        <v>34.989764800000003</v>
       </c>
       <c r="G39">
-        <v>126.7700636</v>
+        <v>127.5772</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -3766,55 +3772,55 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40">
+        <v>35.010187780000003</v>
+      </c>
+      <c r="G40">
+        <v>126.77625449999999</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40">
-        <v>34.989764800000003</v>
-      </c>
-      <c r="G40">
-        <v>127.5772</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
@@ -3822,25 +3828,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F41">
-        <v>35.010187780000003</v>
+        <v>34.927653630000002</v>
       </c>
       <c r="G41">
-        <v>126.77625449999999</v>
+        <v>127.55459980000001</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -3849,84 +3855,28 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L41" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="N41" s="8" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42">
-        <v>34.927653630000002</v>
-      </c>
-      <c r="G42">
-        <v>127.55459980000001</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>99</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="P42" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/3_수집데이터/farmDB_final_0811.xlsx
+++ b/Documents/3_수집데이터/farmDB_final_0811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\3_수집데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996E6C6-A633-400E-A2CD-7F32FD90F1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB761654-8FD6-4651-A6F4-19F1B86458F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,24 +166,6 @@
     <t>신대도시농업공원</t>
   </si>
   <si>
-    <t>전라남도 화순군 화순읍 삼천리 48</t>
-  </si>
-  <si>
-    <t>전라남도 여수시 소라면 현천리 673-7</t>
-  </si>
-  <si>
-    <t>전라남도 여수시 선원동 848-3, 849-1</t>
-  </si>
-  <si>
-    <t>전라남도 화순군 도곡면 월곡리 672</t>
-  </si>
-  <si>
-    <t>전라남도 화순군 능주면 백암리</t>
-  </si>
-  <si>
-    <t>전라남도 화순군 화순읍 교리 247</t>
-  </si>
-  <si>
     <t>광주광역시 광산구 소촌동 420</t>
   </si>
   <si>
@@ -227,9 +209,6 @@
   </si>
   <si>
     <t>광주광역시 남구 양과동 957 외 2필지</t>
-  </si>
-  <si>
-    <t>전라남도 나주시 빛가람동 22-1</t>
   </si>
   <si>
     <t>20000</t>
@@ -1082,14 +1061,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전라남도 나주시 빛가람동 831</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 나주시 빛가람동 864</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1122,32 +1093,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전라남도 목포시 대양동 198</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 여수시 여천동 896-2, 896-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 장성군 장성읍 1455</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 광양시 봉강면 지곡리 862-19외</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 나주시 빛가람동 536외 2개소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라남도 순천시 해룡면 신대리 2137</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>광주광역시 북구 월계동 830-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남 화순군 화순읍 삼천리 48</t>
+  </si>
+  <si>
+    <t>전남 여수시 소라면 현천리 673-7</t>
+  </si>
+  <si>
+    <t>전남 여수시 선원동 848-3, 849-1</t>
+  </si>
+  <si>
+    <t>전남 화순군 도곡면 월곡리 672</t>
+  </si>
+  <si>
+    <t>전남 화순군 능주면 백암리</t>
+  </si>
+  <si>
+    <t>전남 화순군 화순읍 교리 247</t>
+  </si>
+  <si>
+    <t>전남 목포시 대양동 198</t>
+  </si>
+  <si>
+    <t>전남 여수시 여천동 896-2, 896-4</t>
+  </si>
+  <si>
+    <t>전남 나주시 빛가람동 864</t>
+  </si>
+  <si>
+    <t>전남 나주시 빛가람동 831</t>
+  </si>
+  <si>
+    <t>전남 나주시 빛가람동 22-1</t>
+  </si>
+  <si>
+    <t>전남 장성군 장성읍 1455</t>
+  </si>
+  <si>
+    <t>전남 광양시 봉강면 지곡리 862-19외</t>
+  </si>
+  <si>
+    <t>전남 나주시 빛가람동 536외 2개소</t>
+  </si>
+  <si>
+    <t>전남 순천시 해룡면 신대리 2137</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1553,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1588,55 +1580,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -1644,13 +1636,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E2" s="7">
         <v>120000</v>
@@ -1662,7 +1654,7 @@
         <v>126.6866741</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1671,28 +1663,28 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -1706,10 +1698,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>35.04576754</v>
@@ -1718,7 +1710,7 @@
         <v>126.9930968</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -1727,28 +1719,28 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -1762,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>34.759145150000002</v>
@@ -1774,7 +1766,7 @@
         <v>127.60794629999999</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1783,28 +1775,28 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1818,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>34.770363570000001</v>
@@ -1830,7 +1822,7 @@
         <v>127.6556207</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1839,28 +1831,28 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -1874,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>34.987041089999998</v>
@@ -1886,7 +1878,7 @@
         <v>126.9133503</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -1895,28 +1887,28 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -1930,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>350</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>35.020471239999999</v>
@@ -1942,7 +1934,7 @@
         <v>126.9706413</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1951,28 +1943,28 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -1986,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>35.060867690000002</v>
@@ -1998,7 +1990,7 @@
         <v>126.9804573</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -2007,28 +1999,28 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="P8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="P8" t="s">
-        <v>93</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -2042,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>35.146285829999997</v>
@@ -2054,7 +2046,7 @@
         <v>126.7930446</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I9">
         <v>13</v>
@@ -2063,28 +2055,28 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="P9" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="P9" t="s">
-        <v>94</v>
-      </c>
       <c r="Q9" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -2098,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>35.215657319999998</v>
@@ -2110,7 +2102,7 @@
         <v>126.8177204</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -2119,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -2154,10 +2146,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>35.186967430000003</v>
@@ -2166,7 +2158,7 @@
         <v>126.9570844</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -2175,28 +2167,28 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -2210,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>35.172118480000002</v>
@@ -2222,7 +2214,7 @@
         <v>126.9602707</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -2231,28 +2223,28 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -2266,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>35.20645158</v>
@@ -2278,7 +2270,7 @@
         <v>126.9318408</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -2287,28 +2279,28 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -2322,10 +2314,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>35.156641610000001</v>
@@ -2334,7 +2326,7 @@
         <v>126.89414069999999</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -2343,28 +2335,28 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2378,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>35.129543910000002</v>
@@ -2390,7 +2382,7 @@
         <v>126.86258789999999</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -2399,28 +2391,28 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2434,10 +2426,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>35.095326470000003</v>
@@ -2446,7 +2438,7 @@
         <v>126.8135303</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -2455,28 +2447,28 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
@@ -2490,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>35.129789780000003</v>
@@ -2502,7 +2494,7 @@
         <v>126.86845479999999</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -2511,28 +2503,28 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="P17" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
@@ -2546,10 +2538,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <v>35.119966269999999</v>
@@ -2558,7 +2550,7 @@
         <v>126.94353340000001</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -2567,28 +2559,28 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
@@ -2602,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>35.08621359</v>
@@ -2614,7 +2606,7 @@
         <v>126.93967910000001</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2623,28 +2615,28 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L19" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="P19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
@@ -2658,10 +2650,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>35.094648880000001</v>
@@ -2670,7 +2662,7 @@
         <v>126.9627606</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2679,28 +2671,28 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
@@ -2714,10 +2706,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>35.111383930000002</v>
@@ -2726,7 +2718,7 @@
         <v>126.9337723</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -2735,28 +2727,28 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
@@ -2770,10 +2762,10 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F22">
         <v>35.156651170000004</v>
@@ -2782,7 +2774,7 @@
         <v>126.8942291</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -2791,28 +2783,28 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
@@ -2826,10 +2818,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>35.129333240000001</v>
@@ -2838,7 +2830,7 @@
         <v>126.8758014</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -2847,28 +2839,28 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -2882,10 +2874,10 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>35.087435679999999</v>
@@ -2894,7 +2886,7 @@
         <v>126.8638243</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I24">
         <v>5</v>
@@ -2903,28 +2895,28 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -2938,10 +2930,10 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <v>35.21221173</v>
@@ -2950,7 +2942,7 @@
         <v>126.8421647</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -2959,28 +2951,28 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -2994,10 +2986,10 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F26">
         <v>35.16583095</v>
@@ -3006,7 +2998,7 @@
         <v>126.816104</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -3015,28 +3007,28 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3050,10 +3042,10 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F27">
         <v>35.160224810000003</v>
@@ -3062,7 +3054,7 @@
         <v>126.8070287</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -3071,28 +3063,28 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3106,10 +3098,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F28">
         <v>35.125308339999997</v>
@@ -3118,7 +3110,7 @@
         <v>126.79308570000001</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -3127,28 +3119,28 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P28" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3162,10 +3154,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F29">
         <v>35.146717559999999</v>
@@ -3174,7 +3166,7 @@
         <v>126.8017624</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -3183,28 +3175,28 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P29" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3218,10 +3210,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F30">
         <v>35.174370240000002</v>
@@ -3230,7 +3222,7 @@
         <v>126.8078735</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -3239,28 +3231,28 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P30" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3274,10 +3266,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>35.168432520000003</v>
@@ -3286,7 +3278,7 @@
         <v>126.8104209</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -3295,28 +3287,28 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3330,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F32">
         <v>35.220214349999999</v>
@@ -3342,7 +3334,7 @@
         <v>126.81619929999999</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I32">
         <v>7</v>
@@ -3351,28 +3343,28 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3386,10 +3378,10 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>34.835939009999997</v>
@@ -3398,7 +3390,7 @@
         <v>126.4258916</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -3407,28 +3399,28 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3442,10 +3434,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F34">
         <v>34.780743510000001</v>
@@ -3454,7 +3446,7 @@
         <v>127.66370430000001</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I34">
         <v>5</v>
@@ -3463,28 +3455,28 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -3498,10 +3490,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <v>35.00965472</v>
@@ -3510,7 +3502,7 @@
         <v>126.7992539</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -3519,28 +3511,28 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -3554,10 +3546,10 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F36">
         <v>35.009135870000001</v>
@@ -3566,7 +3558,7 @@
         <v>126.7930193</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -3575,28 +3567,28 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -3610,10 +3602,10 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F37">
         <v>35.028759999999998</v>
@@ -3622,7 +3614,7 @@
         <v>126.7843436</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -3631,28 +3623,28 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
@@ -3666,10 +3658,10 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F38">
         <v>35.303092220000003</v>
@@ -3678,7 +3670,7 @@
         <v>126.7700636</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -3687,28 +3679,28 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P38" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -3722,10 +3714,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F39">
         <v>34.989764800000003</v>
@@ -3734,7 +3726,7 @@
         <v>127.5772</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I39">
         <v>5</v>
@@ -3743,28 +3735,28 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P39" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -3778,10 +3770,10 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>35.010187780000003</v>
@@ -3790,7 +3782,7 @@
         <v>126.77625449999999</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -3799,28 +3791,28 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P40" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
@@ -3834,10 +3826,10 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F41">
         <v>34.927653630000002</v>
@@ -3846,7 +3838,7 @@
         <v>127.55459980000001</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -3855,28 +3847,28 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
